--- a/BoSID/ee_provider_ids with trees & acronyms copy.xlsx
+++ b/BoSID/ee_provider_ids with trees & acronyms copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherryzhang/Documents/Courses/SI699/BoSID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C34BC2-E25D-624E-BF45-1F4818B49211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035779C-A7FE-2F41-B426-1871B08A2430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="22340" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="22360" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>MLAP7</t>
   </si>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,10 +620,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>1492</v>
+        <v>1371</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,70 +631,62 @@
         <v>1371</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>1371</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>143</v>
+        <v>1371</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>1371</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>143</v>
+        <v>1371</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>1371</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>143</v>
+        <v>1371</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1371</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>143</v>
-      </c>
-      <c r="B30" t="s">
         <v>24</v>
       </c>
     </row>

--- a/BoSID/ee_provider_ids with trees & acronyms copy.xlsx
+++ b/BoSID/ee_provider_ids with trees & acronyms copy.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherryzhang/Documents/Courses/SI699/BoSID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035779C-A7FE-2F41-B426-1871B08A2430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A251647-0CB0-3C4D-B133-927571D7496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="22360" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$28</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>MLAP7</t>
   </si>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,18 +471,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1371</v>
+        <v>11495</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>11495</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -487,23 +490,23 @@
         <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>143</v>
+        <v>8319</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1371</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -511,15 +514,15 @@
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1371</v>
+        <v>8319</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,7 +530,7 @@
         <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,15 +538,15 @@
         <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1492</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -551,39 +554,39 @@
         <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>8319</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>8319</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>143</v>
+        <v>1492</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>12312</v>
+        <v>1371</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,31 +594,31 @@
         <v>1371</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>143</v>
+        <v>1371</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>1492</v>
+        <v>1371</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>1492</v>
+        <v>1371</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +626,7 @@
         <v>1371</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,15 +634,15 @@
         <v>1371</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>143</v>
+        <v>1371</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,23 +650,23 @@
         <v>1371</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>143</v>
+        <v>1492</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>1371</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,26 +674,23 @@
         <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>1371</v>
+        <v>12312</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>143</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
+      <sortCondition descending="1" ref="B1:B28"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>